--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls2lua\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802050B3-C3CB-477B-9C76-3C3AE7B9DD97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541894F-ACE6-4554-B53D-2E0558CEFBBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>//注释行</t>
   </si>
@@ -138,6 +138,22 @@
   </si>
   <si>
     <t>//$helloworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3,,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +259,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1446,40 +1471,40 @@
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="239" width="8.75" style="1" customWidth="1"/>
-    <col min="240" max="16384" width="8.75" style="1"/>
+    <col min="8" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="240" width="8.75" style="1" customWidth="1"/>
+    <col min="241" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1501,23 +1526,26 @@
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1542,91 +1570,106 @@
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="H9" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1" t="b">
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="b">
+      <c r="K12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>1</v>
       </c>
     </row>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,26 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\jiangzhuohao_DESKTOP-5ONOMSB_mainline_6540\tools\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F541894F-ACE6-4554-B53D-2E0558CEFBBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656A014D-3AF4-422F-BE1D-7347E83A796F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zh jiang</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{8CBDB739-6ECB-455C-AE68-59E0E0EB0DE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zh jiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+唯一值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{02066D70-7145-47FA-809A-A79F35519E4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zh jiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{9B6E2BC7-99BC-4179-9C2D-B30D8DFB8E9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zh jiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+约束和类型同时为空的列，不参与导出</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{C5916D89-9BF3-46FD-B46C-E38C9C7EC17E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zh jiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{79201968-8E37-4C7F-A51C-EBFEA38DE7E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zh jiang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+内嵌数组</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>//注释行</t>
   </si>
@@ -117,18 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>required</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,7 +289,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3,,</t>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(string,int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuck,123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(float,float)[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1.2,2.3),(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,6 +352,21 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -240,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +458,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,11 +1652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1470,45 +1664,53 @@
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="240" width="8.75" style="1" customWidth="1"/>
-    <col min="241" max="16384" width="8.75" style="1"/>
+    <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="241" width="8.75" style="1" customWidth="1"/>
+    <col min="242" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1523,29 +1725,35 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="O6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1564,112 +1772,122 @@
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="O7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>1.2</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>25</v>
+      <c r="N9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P10" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="1" t="b">
+      <c r="J11" s="7"/>
+      <c r="L11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="K12" s="1" t="b">
+      <c r="L12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1680,5 +1898,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\jiangzhuohao_DESKTOP-5ONOMSB_mainline_6540\tools\xls-exporter\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656A014D-3AF4-422F-BE1D-7347E83A796F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECB6D1-B774-45EF-BC38-36FDEB23A570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{C5916D89-9BF3-46FD-B46C-E38C9C7EC17E}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{C5916D89-9BF3-46FD-B46C-E38C9C7EC17E}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{79201968-8E37-4C7F-A51C-EBFEA38DE7E8}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{79201968-8E37-4C7F-A51C-EBFEA38DE7E8}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>//注释行</t>
   </si>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>friendly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[x].cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1653,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1665,48 +1661,48 @@
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="241" width="8.75" style="1" customWidth="1"/>
-    <col min="242" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="240" width="8.75" style="1" customWidth="1"/>
+    <col min="241" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1729,31 +1725,28 @@
         <v>6</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1773,121 +1766,115 @@
         <v>11</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
+      <c r="I9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="7">
         <v>1.3</v>
       </c>
-      <c r="L10" s="1">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="L11" s="1" t="b">
+      <c r="I11" s="7"/>
+      <c r="K11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>21</v>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="1" t="b">
+      <c r="K12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>26</v>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="1">
+      <c r="K13" s="1">
         <v>1</v>
       </c>
     </row>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangzh/xls-exporter/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECB6D1-B774-45EF-BC38-36FDEB23A570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43EAC3D-69EB-6C4D-8D13-E46DD74C1294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>//注释行</t>
   </si>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>0,0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1652,41 +1656,41 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="240" width="8.75" style="1" customWidth="1"/>
-    <col min="241" max="16384" width="8.75" style="1"/>
+    <col min="4" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="240" width="8.6640625" style="1" customWidth="1"/>
+    <col min="241" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="13" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="16" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="16" customHeight="1"/>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="16" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1793,12 +1797,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="16" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="16" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1827,10 +1831,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="16" customHeight="1">
       <c r="A10" s="1">
         <v>3</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
       <c r="I10" s="7">
         <v>1.3</v>
       </c>
@@ -1847,9 +1860,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="16" customHeight="1">
       <c r="A11" s="1">
         <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="1" t="b">
@@ -1859,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="16" customHeight="1">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1870,7 +1886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="16" customHeight="1">
       <c r="A13" s="1">
         <v>6</v>
       </c>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangzh/xls-exporter/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43EAC3D-69EB-6C4D-8D13-E46DD74C1294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF0362-683F-5443-9C99-208A7C77BFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>//注释行</t>
   </si>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fuck,123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,15 +317,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1.2,2.3),(0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 1.2, 2.3),(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( fuck, 123 ) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1656,7 +1652,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1"/>
@@ -1747,7 +1743,7 @@
         <v>34</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="16" customHeight="1">
@@ -1794,7 +1790,7 @@
         <v>33</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" customHeight="1">
@@ -1822,10 +1818,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>39</v>
@@ -1836,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>1001</v>
@@ -1856,9 +1852,7 @@
       <c r="M10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="16" customHeight="1">
       <c r="A11" s="1">

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangzh/xls-exporter/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF0362-683F-5443-9C99-208A7C77BFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02A855-8C48-4B90-9EBF-DBFFDD8959AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>//注释行</t>
   </si>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1,1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +322,22 @@
   </si>
   <si>
     <t xml:space="preserve"> ( fuck, 123 ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.1, 1.2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,bb,cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1649,52 +1661,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="240" width="8.6640625" style="1" customWidth="1"/>
-    <col min="241" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="240" width="8.625" style="1" customWidth="1"/>
+    <col min="241" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="16" customHeight="1">
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" customHeight="1"/>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1702,7 +1715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1740,13 +1753,16 @@
         <v>21</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="16" customHeight="1">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>12</v>
@@ -1787,18 +1803,21 @@
         <v>22</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" customHeight="1">
+    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16" customHeight="1">
+    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1806,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1818,21 +1837,24 @@
         <v>18</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" customHeight="1">
+    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>1001</v>
@@ -1854,7 +1876,7 @@
       </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="16" customHeight="1">
+    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16" customHeight="1">
+    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1880,7 +1902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" customHeight="1">
+    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02A855-8C48-4B90-9EBF-DBFFDD8959AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6E8B7-E8A9-481F-96DB-36A7D563EE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,23 +321,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ( fuck, 123 ) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.1, 1.2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>strings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>,bb,cc</t>
+    <t>(string)[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 'fuck', 123 ) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>('a,b),c'),("d")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1674,11 +1674,11 @@
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="240" width="8.625" style="1" customWidth="1"/>
     <col min="241" max="16384" width="8.625" style="1"/>
   </cols>
@@ -1809,7 +1809,7 @@
         <v>36</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1825,7 +1825,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>34</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>38</v>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,47 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls-exporter\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A6E8B7-E8A9-481F-96DB-36A7D563EE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zh jiang</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{8CBDB739-6ECB-455C-AE68-59E0E0EB0DE0}">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zh jiang:</t>
@@ -49,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,15 +41,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{02066D70-7145-47FA-809A-A79F35519E4F}">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zh jiang:</t>
@@ -75,9 +55,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,15 +63,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{9B6E2BC7-99BC-4179-9C2D-B30D8DFB8E9C}">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zh jiang:</t>
@@ -101,9 +77,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -111,15 +85,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{C5916D89-9BF3-46FD-B46C-E38C9C7EC17E}">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zh jiang:</t>
@@ -127,9 +99,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,15 +107,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{79201968-8E37-4C7F-A51C-EBFEA38DE7E8}">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zh jiang:</t>
@@ -153,9 +121,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,7 +134,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+  <si>
+    <t>//$helloworld</t>
+  </si>
   <si>
     <t>//注释行</t>
   </si>
@@ -176,211 +145,300 @@
     <t>unique</t>
   </si>
   <si>
+    <t>def:100</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>(string,int)</t>
+  </si>
+  <si>
+    <t>(float,float)[]</t>
+  </si>
+  <si>
+    <t>(string)[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>attr.speed</t>
   </si>
   <si>
+    <t>attr.hp</t>
+  </si>
+  <si>
+    <t>skills[0].id</t>
+  </si>
+  <si>
+    <t>skills[0].cd</t>
+  </si>
+  <si>
+    <t>skills[1].id</t>
+  </si>
+  <si>
+    <t>注释列</t>
+  </si>
+  <si>
+    <t>skills[1].cd</t>
+  </si>
+  <si>
+    <t>floats</t>
+  </si>
+  <si>
+    <t>1a2</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>sarr</t>
+  </si>
+  <si>
+    <t>tuple</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
     <t>//1</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr.hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[0].id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[0].cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[1].id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[1].cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friendly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> 1.1, 1.2 </t>
   </si>
   <si>
     <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 'fuck', 123 ) </t>
+  </si>
+  <si>
+    <t>( 1.2, 2.3),(0,0)</t>
+  </si>
+  <si>
+    <t>('a,b),c'),("d")</t>
+  </si>
+  <si>
+    <t>0xff</t>
   </si>
   <si>
     <t>a
 b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>"abc"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sarr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//$helloworld</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(string,int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(float,float)[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>positions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>( 1.2, 2.3),(0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1, 1.2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(string)[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( 'fuck', 123 ) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>('a,b),c'),("d")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,29 +448,215 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -435,14 +679,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,46 +939,93 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FFFABF8F"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="009BBB59"/>
+      <rgbColor rgb="007F7F7F"/>
+      <rgbColor rgb="00FABF8F"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -548,9 +1081,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,7 +1311,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -801,7 +1330,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -831,7 +1359,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -857,7 +1384,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -883,7 +1409,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -909,7 +1434,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -935,7 +1459,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -961,7 +1484,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -987,7 +1509,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1013,7 +1534,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1039,7 +1559,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1082,7 +1601,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -1102,7 +1620,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1128,7 +1645,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1154,7 +1670,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1180,7 +1695,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1206,7 +1720,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1232,7 +1745,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1258,7 +1770,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1284,7 +1795,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1310,7 +1820,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1336,7 +1845,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1369,8 +1877,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1390,7 +1896,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1420,7 +1925,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1446,7 +1950,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1472,7 +1975,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1498,7 +2000,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1524,7 +2025,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1550,7 +2050,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1576,7 +2075,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1602,7 +2100,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1628,7 +2125,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1655,265 +2151,263 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="240" width="8.625" style="1" customWidth="1"/>
-    <col min="241" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
+    <col min="4" max="9" width="13.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="5" customWidth="1"/>
+    <col min="11" max="13" width="8.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="5" customWidth="1"/>
+    <col min="17" max="240" width="8.625" style="5" customWidth="1"/>
+    <col min="241" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.95" customHeight="1"/>
+    <row r="5" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="N7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="8" ht="15.95" customHeight="1" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:16">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="10" ht="15.95" customHeight="1" spans="1:15">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>500</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>200</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="K11" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="L11" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="12" ht="15.95" customHeight="1" spans="1:12">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
+      <c r="L12" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="13" ht="15.95" customHeight="1" spans="1:11">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>500</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>200</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="K11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="K13" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>//$helloworld</t>
   </si>
@@ -229,6 +229,9 @@
     <t>//1</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.1, 1.2 </t>
   </si>
   <si>
@@ -238,7 +241,7 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t xml:space="preserve"> ( 'fuck', 123 ) </t>
+    <t xml:space="preserve"> ( 'fuck', 123  ) </t>
   </si>
   <si>
     <t>( 1.2, 2.3),(0,0)</t>
@@ -268,18 +271,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -294,18 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,22 +307,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
@@ -341,31 +353,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,9 +374,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,30 +405,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,8 +426,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,7 +468,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,13 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,37 +570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,49 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,49 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,37 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,6 +707,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,6 +733,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,152 +765,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -942,19 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2160,7 +2133,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1"/>
@@ -2179,7 +2152,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2198,14 +2171,13 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2214,7 +2186,7 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2232,7 +2204,7 @@
       <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -2247,13 +2219,13 @@
       <c r="M6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2276,13 +2248,13 @@
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2297,13 +2269,13 @@
       <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2313,14 +2285,14 @@
       </c>
     </row>
     <row r="9" ht="15.95" customHeight="1" spans="1:16">
-      <c r="A9" s="5">
-        <v>2</v>
+      <c r="A9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>100</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>31</v>
+      <c r="I9" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -2329,27 +2301,27 @@
         <v>0</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="P9" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" ht="15.95" customHeight="1" spans="1:15">
+    <row r="10" ht="15.95" customHeight="1" spans="1:13">
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>37</v>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="5">
         <v>1001</v>
@@ -2357,19 +2329,18 @@
       <c r="E10" s="5">
         <v>500</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="5">
         <v>1.3</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="9"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="11" ht="15.95" customHeight="1" spans="1:12">
       <c r="A11" s="5">
@@ -2378,12 +2349,11 @@
       <c r="C11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="9"/>
       <c r="K11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="15.95" customHeight="1" spans="1:12">
@@ -2394,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="15.95" customHeight="1" spans="1:11">

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0">
+    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>//$helloworld</t>
   </si>
@@ -157,6 +157,12 @@
     <t>float</t>
   </si>
   <si>
+    <t xml:space="preserve"> int </t>
+  </si>
+  <si>
+    <t>(float,float)</t>
+  </si>
+  <si>
     <t>float[]</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>skills[1].cd</t>
   </si>
   <si>
+    <t>float2</t>
+  </si>
+  <si>
     <t>floats</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t xml:space="preserve"> 2 </t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.1, 1.2 </t>
   </si>
   <si>
@@ -251,19 +263,22 @@
   </si>
   <si>
     <t>0xff</t>
+  </si>
+  <si>
+    <t>(2,3)</t>
   </si>
   <si>
     <t>a
 b</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>"abc"</t>
   </si>
   <si>
     <t>中文</t>
+  </si>
+  <si>
+    <t>have single quote'</t>
   </si>
 </sst>
 </file>
@@ -928,6 +943,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2130,10 +2148,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1"/>
@@ -2141,14 +2159,16 @@
     <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
-    <col min="4" max="9" width="13.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="5" customWidth="1"/>
-    <col min="11" max="13" width="8.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="5" customWidth="1"/>
-    <col min="17" max="240" width="8.625" style="5" customWidth="1"/>
-    <col min="241" max="16384" width="8.625" style="5"/>
+    <col min="4" max="10" width="13.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.3076923076923" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="5" customWidth="1"/>
+    <col min="18" max="241" width="8.625" style="5" customWidth="1"/>
+    <col min="242" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1">
@@ -2167,7 +2187,7 @@
       </c>
     </row>
     <row r="4" ht="15.95" customHeight="1"/>
-    <row r="5" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:11">
+    <row r="5" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2178,11 +2198,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:16">
+    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2205,123 +2225,132 @@
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:16">
+    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="9" ht="15.95" customHeight="1" spans="1:16">
+    <row r="9" ht="15.95" customHeight="1" spans="1:17">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5">
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="5">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" ht="15.95" customHeight="1" spans="1:13">
+    <row r="10" ht="15.95" customHeight="1" spans="1:14">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5">
         <v>1001</v>
@@ -2329,50 +2358,56 @@
       <c r="E10" s="5">
         <v>500</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="5">
         <v>1.3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" ht="15.95" customHeight="1" spans="1:12">
+    <row r="11" ht="15.95" customHeight="1" spans="1:13">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="C11" s="5">
         <v>200</v>
       </c>
-      <c r="K11" s="5" t="b">
+      <c r="L11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>41</v>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" ht="15.95" customHeight="1" spans="1:12">
+    <row r="12" ht="15.95" customHeight="1" spans="1:13">
       <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="K12" s="5" t="b">
+      <c r="L12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>42</v>
+      <c r="M12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" ht="15.95" customHeight="1" spans="1:11">
+    <row r="13" ht="15.95" customHeight="1" spans="1:13">
       <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>1</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11000"/>
+    <workbookView windowWidth="28800" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>//$helloworld</t>
   </si>
@@ -184,6 +184,9 @@
     <t>(string)[]</t>
   </si>
   <si>
+    <t>string[][]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -235,6 +238,9 @@
     <t>strings</t>
   </si>
   <si>
+    <t>array_array</t>
+  </si>
+  <si>
     <t>//1</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>('a,b),c'),("d")</t>
+  </si>
+  <si>
+    <t>[a,b,c],[b,c,d]</t>
   </si>
   <si>
     <t>0xff</t>
@@ -287,9 +296,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -297,28 +306,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -336,25 +323,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +371,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
@@ -383,7 +378,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +401,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +423,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,36 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -483,19 +492,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,25 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,121 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,8 +692,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,7 +713,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,15 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,192 +786,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2148,10 +2157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1"/>
@@ -2167,7 +2176,8 @@
     <col min="15" max="15" width="13.875" style="5" customWidth="1"/>
     <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
     <col min="17" max="17" width="13.875" style="5" customWidth="1"/>
-    <col min="18" max="241" width="8.625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.2307692307692" style="5" customWidth="1"/>
+    <col min="19" max="241" width="8.625" style="5" customWidth="1"/>
     <col min="242" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
@@ -2202,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:17">
+    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2251,77 +2261,83 @@
       <c r="Q6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="R6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:17">
+    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" ht="15.95" customHeight="1" spans="1:17">
+    <row r="9" ht="15.95" customHeight="1" spans="1:18">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="5">
         <v>1</v>
@@ -2330,19 +2346,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="15.95" customHeight="1" spans="1:14">
@@ -2350,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5">
         <v>1001</v>
@@ -2359,7 +2378,7 @@
         <v>500</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="5">
         <v>1.3</v>
@@ -2368,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" ht="15.95" customHeight="1" spans="1:13">
@@ -2385,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="15.95" customHeight="1" spans="1:13">
@@ -2396,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.95" customHeight="1" spans="1:13">
@@ -2407,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0">
+    <comment ref="M5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>//$helloworld</t>
   </si>
@@ -160,6 +160,9 @@
     <t xml:space="preserve"> int </t>
   </si>
   <si>
+    <t>(string,int)</t>
+  </si>
+  <si>
     <t>(float,float)</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>(string,int)</t>
-  </si>
-  <si>
     <t>(float,float)[]</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
     <t>skills[1].cd</t>
   </si>
   <si>
+    <t>string_int</t>
+  </si>
+  <si>
     <t>float2</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t xml:space="preserve"> 2 </t>
   </si>
   <si>
+    <t>("abc",12)</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -268,7 +274,7 @@
     <t>('a,b),c'),("d")</t>
   </si>
   <si>
-    <t>[a,b,c],[b,c,d]</t>
+    <t>[['a','b','c'],['b','c','d']]</t>
   </si>
   <si>
     <t>0xff</t>
@@ -2157,10 +2163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.95" customHeight="1"/>
@@ -2168,17 +2174,17 @@
     <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
-    <col min="4" max="10" width="13.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.3076923076923" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12.2307692307692" style="5" customWidth="1"/>
-    <col min="19" max="241" width="8.625" style="5" customWidth="1"/>
-    <col min="242" max="16384" width="8.625" style="5"/>
+    <col min="4" max="11" width="13.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="18.3076923076923" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="13.875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18.3076923076923" style="5" customWidth="1"/>
+    <col min="20" max="242" width="8.625" style="5" customWidth="1"/>
+    <col min="243" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1">
@@ -2197,7 +2203,7 @@
       </c>
     </row>
     <row r="4" ht="15.95" customHeight="1"/>
-    <row r="5" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:12">
+    <row r="5" s="2" customFormat="1" ht="15.95" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2208,11 +2214,11 @@
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:18">
+    <row r="6" s="3" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2241,10 +2247,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>11</v>
@@ -2256,16 +2262,19 @@
         <v>13</v>
       </c>
       <c r="P6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:18">
+    <row r="7" s="4" customFormat="1" ht="15.95" customHeight="1" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -2319,57 +2328,63 @@
       </c>
       <c r="R7" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.95" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="9" ht="15.95" customHeight="1" spans="1:18">
+    <row r="9" ht="15.95" customHeight="1" spans="1:19">
       <c r="A9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="5">
+        <v>39</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="N9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" ht="15.95" customHeight="1" spans="1:14">
+    <row r="10" ht="15.95" customHeight="1" spans="1:15">
       <c r="A10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5">
         <v>1001</v>
@@ -2377,56 +2392,56 @@
       <c r="E10" s="5">
         <v>500</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="J10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="5">
         <v>1.3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>1</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="N10" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" ht="15.95" customHeight="1" spans="1:13">
+    <row r="11" ht="15.95" customHeight="1" spans="1:14">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="C11" s="5">
         <v>200</v>
       </c>
-      <c r="L11" s="5" t="b">
+      <c r="M11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>48</v>
+      <c r="N11" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" ht="15.95" customHeight="1" spans="1:13">
+    <row r="12" ht="15.95" customHeight="1" spans="1:14">
       <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="L12" s="5" t="b">
+      <c r="M12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>49</v>
+      <c r="N12" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="13" ht="15.95" customHeight="1" spans="1:13">
+    <row r="13" ht="15.95" customHeight="1" spans="1:14">
       <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>1</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>50</v>
+      <c r="N13" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
